--- a/tests/fixtures/orderforms/1508.34.mip_no_delivery.xlsx
+++ b/tests/fixtures/orderforms/1508.34.mip_no_delivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Documents/clinicalGenomics/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE344911-83D2-CC44-93F0-6A21916FCBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFFC47-630F-014F-A073-79DB643F81C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5850,8 +5850,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13554,7 +13554,7 @@
         <v>71</v>
       </c>
       <c r="U15" s="87" t="s">
-        <v>460</v>
+        <v>840</v>
       </c>
       <c r="V15" s="101" t="s">
         <v>70</v>
@@ -14635,7 +14635,7 @@
         <v>71</v>
       </c>
       <c r="U16" s="159" t="s">
-        <v>460</v>
+        <v>840</v>
       </c>
       <c r="V16" s="160" t="s">
         <v>80</v>
@@ -15700,7 +15700,7 @@
         <v>71</v>
       </c>
       <c r="U17" s="159" t="s">
-        <v>460</v>
+        <v>840</v>
       </c>
       <c r="V17" s="160" t="s">
         <v>80</v>
@@ -16761,7 +16761,7 @@
         <v>71</v>
       </c>
       <c r="U18" s="159" t="s">
-        <v>90</v>
+        <v>840</v>
       </c>
       <c r="V18" s="160" t="s">
         <v>70</v>
@@ -17822,7 +17822,7 @@
         <v>71</v>
       </c>
       <c r="U19" s="159" t="s">
-        <v>95</v>
+        <v>840</v>
       </c>
       <c r="V19" s="160" t="s">
         <v>70</v>
@@ -18883,7 +18883,7 @@
         <v>71</v>
       </c>
       <c r="U20" s="159" t="s">
-        <v>100</v>
+        <v>840</v>
       </c>
       <c r="V20" s="160" t="s">
         <v>70</v>
@@ -19944,7 +19944,7 @@
         <v>71</v>
       </c>
       <c r="U21" s="159" t="s">
-        <v>104</v>
+        <v>840</v>
       </c>
       <c r="V21" s="160" t="s">
         <v>70</v>
@@ -21005,7 +21005,7 @@
         <v>71</v>
       </c>
       <c r="U22" s="159" t="s">
-        <v>108</v>
+        <v>840</v>
       </c>
       <c r="V22" s="160" t="s">
         <v>70</v>
@@ -22066,7 +22066,7 @@
         <v>71</v>
       </c>
       <c r="U23" s="159" t="s">
-        <v>112</v>
+        <v>840</v>
       </c>
       <c r="V23" s="160" t="s">
         <v>70</v>
@@ -23127,7 +23127,7 @@
         <v>71</v>
       </c>
       <c r="U24" s="159" t="s">
-        <v>461</v>
+        <v>840</v>
       </c>
       <c r="V24" s="160" t="s">
         <v>70</v>
@@ -24188,7 +24188,7 @@
         <v>71</v>
       </c>
       <c r="U25" s="159" t="s">
-        <v>461</v>
+        <v>840</v>
       </c>
       <c r="V25" s="160" t="s">
         <v>70</v>
@@ -25249,7 +25249,7 @@
         <v>71</v>
       </c>
       <c r="U26" s="159" t="s">
-        <v>117</v>
+        <v>840</v>
       </c>
       <c r="V26" s="160" t="s">
         <v>70</v>
@@ -26311,7 +26311,7 @@
       </c>
       <c r="T27"/>
       <c r="U27" s="159" t="s">
-        <v>121</v>
+        <v>840</v>
       </c>
       <c r="V27" s="160" t="s">
         <v>70</v>
@@ -26382,7 +26382,7 @@
         <v>71</v>
       </c>
       <c r="U28" s="159" t="s">
-        <v>126</v>
+        <v>840</v>
       </c>
       <c r="V28" s="160" t="s">
         <v>70</v>
@@ -27443,7 +27443,7 @@
         <v>71</v>
       </c>
       <c r="U29" s="159" t="s">
-        <v>131</v>
+        <v>840</v>
       </c>
       <c r="V29" s="160" t="s">
         <v>70</v>
@@ -28504,7 +28504,7 @@
         <v>71</v>
       </c>
       <c r="U30" s="159" t="s">
-        <v>135</v>
+        <v>840</v>
       </c>
       <c r="V30" s="160" t="s">
         <v>70</v>
@@ -29565,7 +29565,7 @@
         <v>71</v>
       </c>
       <c r="U31" s="159" t="s">
-        <v>140</v>
+        <v>840</v>
       </c>
       <c r="V31" s="160" t="s">
         <v>70</v>
@@ -30626,7 +30626,7 @@
         <v>71</v>
       </c>
       <c r="U32" s="159" t="s">
-        <v>143</v>
+        <v>840</v>
       </c>
       <c r="V32" s="160" t="s">
         <v>70</v>
@@ -31687,7 +31687,7 @@
         <v>71</v>
       </c>
       <c r="U33" s="159" t="s">
-        <v>147</v>
+        <v>840</v>
       </c>
       <c r="V33" s="160" t="s">
         <v>70</v>
@@ -32748,7 +32748,7 @@
         <v>71</v>
       </c>
       <c r="U34" s="159" t="s">
-        <v>150</v>
+        <v>840</v>
       </c>
       <c r="V34" s="160" t="s">
         <v>70</v>
@@ -33809,7 +33809,7 @@
         <v>71</v>
       </c>
       <c r="U35" s="159" t="s">
-        <v>153</v>
+        <v>840</v>
       </c>
       <c r="V35" s="160" t="s">
         <v>70</v>
@@ -34871,7 +34871,7 @@
       </c>
       <c r="T36"/>
       <c r="U36" s="159" t="s">
-        <v>156</v>
+        <v>840</v>
       </c>
       <c r="V36" s="160" t="s">
         <v>70</v>
@@ -34943,7 +34943,7 @@
       </c>
       <c r="T37"/>
       <c r="U37" s="159" t="s">
-        <v>159</v>
+        <v>840</v>
       </c>
       <c r="V37" s="160" t="s">
         <v>70</v>
@@ -35015,7 +35015,7 @@
       </c>
       <c r="T38"/>
       <c r="U38" s="159" t="s">
-        <v>162</v>
+        <v>840</v>
       </c>
       <c r="V38" s="160" t="s">
         <v>70</v>
@@ -35086,7 +35086,7 @@
         <v>81</v>
       </c>
       <c r="U39" s="159" t="s">
-        <v>451</v>
+        <v>840</v>
       </c>
       <c r="V39" s="160" t="s">
         <v>70</v>
@@ -37208,7 +37208,7 @@
         <v>81</v>
       </c>
       <c r="U41" s="159" t="s">
-        <v>169</v>
+        <v>840</v>
       </c>
       <c r="V41" s="160" t="s">
         <v>70</v>
@@ -38269,7 +38269,7 @@
         <v>81</v>
       </c>
       <c r="U42" s="159" t="s">
-        <v>172</v>
+        <v>840</v>
       </c>
       <c r="V42" s="160" t="s">
         <v>70</v>
@@ -39330,7 +39330,7 @@
         <v>81</v>
       </c>
       <c r="U43" s="159" t="s">
-        <v>176</v>
+        <v>840</v>
       </c>
       <c r="V43" s="160" t="s">
         <v>70</v>
@@ -40391,7 +40391,7 @@
         <v>81</v>
       </c>
       <c r="U44" s="159" t="s">
-        <v>182</v>
+        <v>840</v>
       </c>
       <c r="V44" s="160" t="s">
         <v>70</v>
@@ -41452,7 +41452,7 @@
         <v>81</v>
       </c>
       <c r="U45" s="159" t="s">
-        <v>185</v>
+        <v>840</v>
       </c>
       <c r="V45" s="160" t="s">
         <v>70</v>
@@ -42513,7 +42513,7 @@
         <v>81</v>
       </c>
       <c r="U46" s="159" t="s">
-        <v>188</v>
+        <v>840</v>
       </c>
       <c r="V46" s="160" t="s">
         <v>70</v>
@@ -43574,7 +43574,7 @@
         <v>81</v>
       </c>
       <c r="U47" s="159" t="s">
-        <v>191</v>
+        <v>840</v>
       </c>
       <c r="V47" s="160" t="s">
         <v>70</v>
@@ -44635,7 +44635,7 @@
         <v>81</v>
       </c>
       <c r="U48" s="159" t="s">
-        <v>194</v>
+        <v>840</v>
       </c>
       <c r="V48" s="160" t="s">
         <v>70</v>
@@ -45696,7 +45696,7 @@
         <v>81</v>
       </c>
       <c r="U49" s="159" t="s">
-        <v>197</v>
+        <v>840</v>
       </c>
       <c r="V49" s="160" t="s">
         <v>70</v>
@@ -46758,7 +46758,7 @@
       </c>
       <c r="T50"/>
       <c r="U50" s="159" t="s">
-        <v>557</v>
+        <v>840</v>
       </c>
       <c r="V50" s="160" t="s">
         <v>70</v>
@@ -46829,7 +46829,7 @@
         <v>81</v>
       </c>
       <c r="U51" s="159" t="s">
-        <v>203</v>
+        <v>840</v>
       </c>
       <c r="V51" s="160" t="s">
         <v>70</v>
@@ -47890,7 +47890,7 @@
         <v>81</v>
       </c>
       <c r="U52" s="159" t="s">
-        <v>464</v>
+        <v>840</v>
       </c>
       <c r="V52" s="160" t="s">
         <v>70</v>
@@ -48951,7 +48951,7 @@
         <v>81</v>
       </c>
       <c r="U53" s="159" t="s">
-        <v>206</v>
+        <v>840</v>
       </c>
       <c r="V53" s="160" t="s">
         <v>70</v>
@@ -50012,7 +50012,7 @@
         <v>81</v>
       </c>
       <c r="U54" s="159" t="s">
-        <v>210</v>
+        <v>840</v>
       </c>
       <c r="V54" s="160" t="s">
         <v>70</v>
@@ -51073,7 +51073,7 @@
         <v>81</v>
       </c>
       <c r="U55" s="159" t="s">
-        <v>213</v>
+        <v>840</v>
       </c>
       <c r="V55" s="160" t="s">
         <v>70</v>
@@ -52134,7 +52134,7 @@
         <v>81</v>
       </c>
       <c r="U56" s="159" t="s">
-        <v>216</v>
+        <v>840</v>
       </c>
       <c r="V56" s="160" t="s">
         <v>70</v>

--- a/tests/fixtures/orderforms/1508.34.mip_no_delivery.xlsx
+++ b/tests/fixtures/orderforms/1508.34.mip_no_delivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Documents/clinicalGenomics/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFFC47-630F-014F-A073-79DB643F81C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EC1F4-B6DE-F845-B051-7A27EE0FA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="840">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3604,9 +3604,6 @@
   </si>
   <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>Inhertired cancer</t>
   </si>
 </sst>
 </file>
@@ -5850,8 +5847,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13554,7 +13551,7 @@
         <v>71</v>
       </c>
       <c r="U15" s="87" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V15" s="101" t="s">
         <v>70</v>
@@ -14635,7 +14632,7 @@
         <v>71</v>
       </c>
       <c r="U16" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V16" s="160" t="s">
         <v>80</v>
@@ -15700,7 +15697,7 @@
         <v>71</v>
       </c>
       <c r="U17" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V17" s="160" t="s">
         <v>80</v>
@@ -16761,7 +16758,7 @@
         <v>71</v>
       </c>
       <c r="U18" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V18" s="160" t="s">
         <v>70</v>
@@ -17822,7 +17819,7 @@
         <v>71</v>
       </c>
       <c r="U19" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V19" s="160" t="s">
         <v>70</v>
@@ -18883,7 +18880,7 @@
         <v>71</v>
       </c>
       <c r="U20" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V20" s="160" t="s">
         <v>70</v>
@@ -19944,7 +19941,7 @@
         <v>71</v>
       </c>
       <c r="U21" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V21" s="160" t="s">
         <v>70</v>
@@ -21005,7 +21002,7 @@
         <v>71</v>
       </c>
       <c r="U22" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V22" s="160" t="s">
         <v>70</v>
@@ -22066,7 +22063,7 @@
         <v>71</v>
       </c>
       <c r="U23" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V23" s="160" t="s">
         <v>70</v>
@@ -23127,7 +23124,7 @@
         <v>71</v>
       </c>
       <c r="U24" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V24" s="160" t="s">
         <v>70</v>
@@ -24188,7 +24185,7 @@
         <v>71</v>
       </c>
       <c r="U25" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V25" s="160" t="s">
         <v>70</v>
@@ -25249,7 +25246,7 @@
         <v>71</v>
       </c>
       <c r="U26" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V26" s="160" t="s">
         <v>70</v>
@@ -26311,7 +26308,7 @@
       </c>
       <c r="T27"/>
       <c r="U27" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V27" s="160" t="s">
         <v>70</v>
@@ -26382,7 +26379,7 @@
         <v>71</v>
       </c>
       <c r="U28" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V28" s="160" t="s">
         <v>70</v>
@@ -27443,7 +27440,7 @@
         <v>71</v>
       </c>
       <c r="U29" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V29" s="160" t="s">
         <v>70</v>
@@ -28504,7 +28501,7 @@
         <v>71</v>
       </c>
       <c r="U30" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V30" s="160" t="s">
         <v>70</v>
@@ -29565,7 +29562,7 @@
         <v>71</v>
       </c>
       <c r="U31" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V31" s="160" t="s">
         <v>70</v>
@@ -30626,7 +30623,7 @@
         <v>71</v>
       </c>
       <c r="U32" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V32" s="160" t="s">
         <v>70</v>
@@ -31687,7 +31684,7 @@
         <v>71</v>
       </c>
       <c r="U33" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V33" s="160" t="s">
         <v>70</v>
@@ -32748,7 +32745,7 @@
         <v>71</v>
       </c>
       <c r="U34" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V34" s="160" t="s">
         <v>70</v>
@@ -33809,7 +33806,7 @@
         <v>71</v>
       </c>
       <c r="U35" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V35" s="160" t="s">
         <v>70</v>
@@ -34871,7 +34868,7 @@
       </c>
       <c r="T36"/>
       <c r="U36" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V36" s="160" t="s">
         <v>70</v>
@@ -34943,7 +34940,7 @@
       </c>
       <c r="T37"/>
       <c r="U37" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V37" s="160" t="s">
         <v>70</v>
@@ -35015,7 +35012,7 @@
       </c>
       <c r="T38"/>
       <c r="U38" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V38" s="160" t="s">
         <v>70</v>
@@ -35086,7 +35083,7 @@
         <v>81</v>
       </c>
       <c r="U39" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V39" s="160" t="s">
         <v>70</v>
@@ -36147,7 +36144,7 @@
         <v>81</v>
       </c>
       <c r="U40" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V40" s="160" t="s">
         <v>70</v>
@@ -37208,7 +37205,7 @@
         <v>81</v>
       </c>
       <c r="U41" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V41" s="160" t="s">
         <v>70</v>
@@ -38269,7 +38266,7 @@
         <v>81</v>
       </c>
       <c r="U42" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V42" s="160" t="s">
         <v>70</v>
@@ -39330,7 +39327,7 @@
         <v>81</v>
       </c>
       <c r="U43" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V43" s="160" t="s">
         <v>70</v>
@@ -40391,7 +40388,7 @@
         <v>81</v>
       </c>
       <c r="U44" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V44" s="160" t="s">
         <v>70</v>
@@ -41452,7 +41449,7 @@
         <v>81</v>
       </c>
       <c r="U45" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V45" s="160" t="s">
         <v>70</v>
@@ -42513,7 +42510,7 @@
         <v>81</v>
       </c>
       <c r="U46" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V46" s="160" t="s">
         <v>70</v>
@@ -43574,7 +43571,7 @@
         <v>81</v>
       </c>
       <c r="U47" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V47" s="160" t="s">
         <v>70</v>
@@ -44635,7 +44632,7 @@
         <v>81</v>
       </c>
       <c r="U48" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V48" s="160" t="s">
         <v>70</v>
@@ -45696,7 +45693,7 @@
         <v>81</v>
       </c>
       <c r="U49" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V49" s="160" t="s">
         <v>70</v>
@@ -46758,7 +46755,7 @@
       </c>
       <c r="T50"/>
       <c r="U50" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V50" s="160" t="s">
         <v>70</v>
@@ -46829,7 +46826,7 @@
         <v>81</v>
       </c>
       <c r="U51" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V51" s="160" t="s">
         <v>70</v>
@@ -47890,7 +47887,7 @@
         <v>81</v>
       </c>
       <c r="U52" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V52" s="160" t="s">
         <v>70</v>
@@ -48951,7 +48948,7 @@
         <v>81</v>
       </c>
       <c r="U53" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V53" s="160" t="s">
         <v>70</v>
@@ -50012,7 +50009,7 @@
         <v>81</v>
       </c>
       <c r="U54" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V54" s="160" t="s">
         <v>70</v>
@@ -51073,7 +51070,7 @@
         <v>81</v>
       </c>
       <c r="U55" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V55" s="160" t="s">
         <v>70</v>
@@ -52134,7 +52131,7 @@
         <v>81</v>
       </c>
       <c r="U56" s="159" t="s">
-        <v>840</v>
+        <v>165</v>
       </c>
       <c r="V56" s="160" t="s">
         <v>70</v>

--- a/tests/fixtures/orderforms/1508.34.mip_no_delivery.xlsx
+++ b/tests/fixtures/orderforms/1508.34.mip_no_delivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Documents/clinicalGenomics/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EC1F4-B6DE-F845-B051-7A27EE0FA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230B3864-1CC8-8A4C-9F80-2A8B4BE21BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="841">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3604,6 +3604,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>AID;Inherited cancer</t>
   </si>
 </sst>
 </file>
@@ -5847,8 +5850,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -14632,7 +14635,7 @@
         <v>71</v>
       </c>
       <c r="U16" s="159" t="s">
-        <v>165</v>
+        <v>840</v>
       </c>
       <c r="V16" s="160" t="s">
         <v>80</v>
@@ -71775,8 +71778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL313"/>
   <sheetViews>
-    <sheetView topLeftCell="G23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
